--- a/biology/Zoologie/Grive_du_Cameroun/Grive_du_Cameroun.xlsx
+++ b/biology/Zoologie/Grive_du_Cameroun/Grive_du_Cameroun.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Geokichla camaronensis
 La Grive du Cameroun (Geokichla camaronensis anciennement Zoothera camaronensis) est une espèce de passereaux de la famille des Turdidae.
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est originaire du Cameroun, de la République démocratique du Congo, du Gabon, de Guinée équatoriale et d'Ouganda.
 </t>
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle vit dans les forêts tropicales et subtropicales.
 </t>
@@ -574,16 +590,52 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">synonyme
-Zoothera camaronensis
-Sous-espèces
-D'après la classification de référence (version 5.2, 2015) du Congrès ornithologique international, cette espèce est constituée des sous-espèces suivantes (ordre phylogénique) :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>synonyme
+Zoothera camaronensis</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Grive_du_Cameroun</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grive_du_Cameroun</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après la classification de référence (version 5.2, 2015) du Congrès ornithologique international, cette espèce est constituée des sous-espèces suivantes (ordre phylogénique) :
 G. c. camaronensis  Sharpe, 1905 ; présente au Cameroun et au Gabon ;
 G. c. graueri  Sassi, 1914 ; nord-est de la République démocratique du Congo et ouest de l'Ouganda ;
 G. c. kibalensis  (Prigogine, 1978) ; forêt de Kibale, ouest de l'Ouganda.
-La sous-espèce G. c. kibalensis a été, et est encore parfois, considérée comme une espèce à part entière, la Grive de Kibale (Geokichla kibalensis, synonyme Zoothera kibalensis)[1].
+La sous-espèce G. c. kibalensis a été, et est encore parfois, considérée comme une espèce à part entière, la Grive de Kibale (Geokichla kibalensis, synonyme Zoothera kibalensis).
 </t>
         </is>
       </c>
